--- a/gaCode/analyze/Results.xlsx
+++ b/gaCode/analyze/Results.xlsx
@@ -14,12 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>5 Tests per Environment</t>
   </si>
   <si>
     <t>40 Tests per Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESULTS </t>
+  </si>
+  <si>
+    <t>Std:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shorter  </t>
+  </si>
+  <si>
+    <t>474 of 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean difference:  </t>
+  </si>
+  <si>
+    <t>NoJerk:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean comp time:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Col'n free:   </t>
+  </si>
+  <si>
+    <t>565 of 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean max jerk comp:  </t>
+  </si>
+  <si>
+    <t>485 of 600</t>
+  </si>
+  <si>
+    <t>569 of 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean num generations:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Std Dev generations:  </t>
   </si>
 </sst>
 </file>
@@ -74,13 +116,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -384,31 +440,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFA19"/>
+  <dimension ref="A1:XFA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
       <c r="XFA1" s="3"/>
     </row>
     <row r="2" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
@@ -434,7 +494,7 @@
         <v>469.16206025640997</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>385.31247794871803</v>
       </c>
       <c r="J2">
         <v>355.25483000000003</v>
@@ -446,7 +506,7 @@
         <v>1.3206352754061399</v>
       </c>
       <c r="M2" s="1">
-        <v>0</v>
+        <v>1.0846086960977199</v>
       </c>
     </row>
     <row r="3" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
@@ -472,7 +532,7 @@
         <v>312.15677435897402</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>288.460721538462</v>
       </c>
       <c r="J3">
         <v>283.06097</v>
@@ -484,7 +544,7 @@
         <v>1.1027898843099899</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>1.01907628430179</v>
       </c>
     </row>
     <row r="4" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
@@ -510,7 +570,7 @@
         <v>495.39953461538499</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>357.324393076923</v>
       </c>
       <c r="J4">
         <v>354.71276999999998</v>
@@ -522,7 +582,7 @@
         <v>1.3966216514149901</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>1.00736264182686</v>
       </c>
     </row>
     <row r="5" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
@@ -548,7 +608,7 @@
         <v>390.816918974359</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>390.01658128205099</v>
       </c>
       <c r="J5">
         <v>331.37468000000001</v>
@@ -560,7 +620,7 @@
         <v>1.17938075104096</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>1.1769655463177</v>
       </c>
     </row>
     <row r="6" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
@@ -586,7 +646,7 @@
         <v>175.450647692308</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>175.43621410256401</v>
       </c>
       <c r="J6">
         <v>176.53405000000001</v>
@@ -598,7 +658,7 @@
         <v>0.99386292725005598</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>0.99378116631077196</v>
       </c>
     </row>
     <row r="7" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
@@ -624,7 +684,7 @@
         <v>261.83952230769199</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>261.90593435897398</v>
       </c>
       <c r="J7">
         <v>268.24473</v>
@@ -636,7 +696,7 @@
         <v>0.97612177621417695</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>0.97636935629257104</v>
       </c>
     </row>
     <row r="8" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
@@ -662,7 +722,7 @@
         <v>122.21695589743599</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>122.294791025641</v>
       </c>
       <c r="J8">
         <v>122.43859999999999</v>
@@ -674,7 +734,7 @@
         <v>0.99818975304712598</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>0.99882546048093501</v>
       </c>
     </row>
     <row r="9" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
@@ -700,7 +760,7 @@
         <v>220.59875025641</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>220.58652051281999</v>
       </c>
       <c r="J9">
         <v>232.77670000000001</v>
@@ -712,7 +772,7 @@
         <v>0.94768398321829606</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>0.94763144469708704</v>
       </c>
     </row>
     <row r="10" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
@@ -738,7 +798,7 @@
         <v>218.860273589744</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>219.14035282051299</v>
       </c>
       <c r="J10">
         <v>221.81833</v>
@@ -750,7 +810,7 @@
         <v>0.98666450869837297</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>0.98792716012474202</v>
       </c>
     </row>
     <row r="11" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
@@ -776,7 +836,7 @@
         <v>191.10185461538501</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>190.420001025641</v>
       </c>
       <c r="J11">
         <v>197.59293</v>
@@ -788,7 +848,7 @@
         <v>0.96714925283705599</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>0.96369845330822901</v>
       </c>
     </row>
     <row r="12" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
@@ -814,7 +874,7 @@
         <v>215.102130769231</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>214.93954974358999</v>
       </c>
       <c r="J12">
         <v>220.62742</v>
@@ -826,7 +886,7 @@
         <v>0.97495647081958703</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>0.97421956773817897</v>
       </c>
     </row>
     <row r="13" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
@@ -852,7 +912,7 @@
         <v>314.57704615384603</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>314.52825000000001</v>
       </c>
       <c r="J13">
         <v>337.11984000000001</v>
@@ -864,7 +924,7 @@
         <v>0.93313121575356095</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>0.93298647151707204</v>
       </c>
     </row>
     <row r="14" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
@@ -890,7 +950,7 @@
         <v>194.625783589744</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>194.623353076923</v>
       </c>
       <c r="J14">
         <v>197.67618999999999</v>
@@ -902,7 +962,7 @@
         <v>0.98456867056039199</v>
       </c>
       <c r="M14" s="1">
-        <v>0</v>
+        <v>0.98455637513512895</v>
       </c>
     </row>
     <row r="15" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
@@ -928,7 +988,7 @@
         <v>422.91811871794903</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>412.40710641025601</v>
       </c>
       <c r="J15">
         <v>367.73000999999999</v>
@@ -940,7 +1000,7 @@
         <v>1.1500777940803599</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>1.12149428981947</v>
       </c>
     </row>
     <row r="16" spans="1:13 16381:16381" x14ac:dyDescent="0.25">
@@ -966,7 +1026,7 @@
         <v>355.18208256410298</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>355.21643820512799</v>
       </c>
       <c r="J16">
         <v>367.70058</v>
@@ -978,19 +1038,172 @@
         <v>0.96595464321569102</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+        <v>0.96604807695742001</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="L19" s="2">
-        <f>AVERAGE(L2:L16)</f>
-        <v>1.058519237191117</v>
-      </c>
-      <c r="M19" s="2">
-        <f>AVERAGE(M2:M16)</f>
-        <v>0</v>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="10">
+        <v>1.0073479999999999</v>
+      </c>
+      <c r="N22" s="7">
+        <f>N23/L25</f>
+        <v>196.90565777921859</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1069.5999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="9">
+        <v>1.9290039999999999</v>
+      </c>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="6">
+        <v>5.4320430000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="6">
+        <v>12.234999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="6">
+        <v>2.5873279999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0.95792619999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="6">
+        <v>5.587148</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="6">
+        <v>12.35167</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="6">
+        <v>2.9278460000000002</v>
       </c>
     </row>
   </sheetData>
